--- a/sriramModel-nelson-melancholic-patientID_13-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.16161589703036</v>
+        <v>2.105777736901151</v>
       </c>
       <c r="C2">
-        <v>2.165350522769856</v>
+        <v>2.167769977654284</v>
       </c>
       <c r="D2">
-        <v>2.160538534381088</v>
+        <v>2.145279496587917</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.121356711005722</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.128077893589847</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.315981119697953</v>
+        <v>2.208123192598831</v>
       </c>
       <c r="C3">
-        <v>2.323943798850651</v>
+        <v>2.327021095897671</v>
       </c>
       <c r="D3">
-        <v>2.313538882383726</v>
+        <v>2.284492688922109</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.237912711240545</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.251282499813887</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.463468555909811</v>
+        <v>2.307213069821478</v>
       </c>
       <c r="C4">
-        <v>2.476064177123422</v>
+        <v>2.478218787404203</v>
       </c>
       <c r="D4">
-        <v>2.459399377441639</v>
+        <v>2.417932668704891</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.349908760357466</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.369863577283771</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604432378608502</v>
+        <v>2.403216591668512</v>
       </c>
       <c r="C5">
-        <v>2.621982305609457</v>
+        <v>2.621804793834329</v>
       </c>
       <c r="D5">
-        <v>2.59849841774514</v>
+        <v>2.545879408622186</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.457576370605928</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.484060399045513</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739209036354919</v>
+        <v>2.496295753731848</v>
       </c>
       <c r="C6">
-        <v>2.761955868507966</v>
+        <v>2.758198976142611</v>
       </c>
       <c r="D6">
-        <v>2.731195503151717</v>
+        <v>2.668600517899748</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.561137912594095</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.594102435573001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.868118172932247</v>
+        <v>2.5866055879557</v>
       </c>
       <c r="C7">
-        <v>2.896230267693892</v>
+        <v>2.887800381354264</v>
       </c>
       <c r="D7">
-        <v>2.857832202575302</v>
+        <v>2.786351626273134</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.660807238478431</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.700209448485499</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.991463487190851</v>
+        <v>2.674294527549199</v>
       </c>
       <c r="C8">
-        <v>3.025039258533103</v>
+        <v>3.010988203231983</v>
       </c>
       <c r="D8">
-        <v>2.97873306154248</v>
+        <v>2.899377152499818</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.75679003351661</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.802592193258892</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.109533540888221</v>
+        <v>2.759504535549588</v>
       </c>
       <c r="C9">
-        <v>3.14860554618627</v>
+        <v>3.128122802435466</v>
       </c>
       <c r="D9">
-        <v>3.094206457170189</v>
+        <v>3.007910696272824</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.849284045904938</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.901452527136159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.222602520064481</v>
+        <v>2.842371308075456</v>
       </c>
       <c r="C10">
-        <v>3.267141347116675</v>
+        <v>3.239546692535859</v>
       </c>
       <c r="D10">
-        <v>3.204545405705825</v>
+        <v>3.112175524143089</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.938479382237763</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.996983779127861</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.330930954298648</v>
+        <v>2.923024492348181</v>
       </c>
       <c r="C11">
-        <v>3.380848919210973</v>
+        <v>3.345585422010578</v>
       </c>
       <c r="D11">
-        <v>3.310028326651628</v>
+        <v>3.212385035238092</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.02455882622899</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.089371059839001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.434766397253611</v>
+        <v>3.001587885437508</v>
       </c>
       <c r="C12">
-        <v>3.489921063222441</v>
+        <v>3.446548320453749</v>
       </c>
       <c r="D12">
-        <v>3.410919766729586</v>
+        <v>3.308743152750196</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.10769812460624</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3.178791508607069</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.534344071351922</v>
+        <v>3.078179617661044</v>
       </c>
       <c r="C13">
-        <v>3.594541597727216</v>
+        <v>3.542729244099502</v>
       </c>
       <c r="D13">
-        <v>3.507471086420181</v>
+        <v>3.401444735656037</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.188066247102437</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.26541455592751</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.629887478985177</v>
+        <v>3.152912338932227</v>
       </c>
       <c r="C14">
-        <v>3.694885809431376</v>
+        <v>3.634407591963674</v>
       </c>
       <c r="D14">
-        <v>3.599921111436632</v>
+        <v>3.4906760158527</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.265825633323058</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3.349402204637646</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.721608982353966</v>
+        <v>3.22589335606799</v>
       </c>
       <c r="C15">
-        <v>3.79112088042517</v>
+        <v>3.721848929359476</v>
       </c>
       <c r="D15">
-        <v>3.688496751221009</v>
+        <v>3.576614988824894</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.341132433338456</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3.430909209279665</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.809710353810642</v>
+        <v>3.297224786373143</v>
       </c>
       <c r="C16">
-        <v>3.883406293781873</v>
+        <v>3.805305536300218</v>
       </c>
       <c r="D16">
-        <v>3.773413586350375</v>
+        <v>3.659431755142729</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3.414136740920788</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3.510083395230673</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894383298388041</v>
+        <v>3.367003765412052</v>
       </c>
       <c r="C17">
-        <v>3.971894218761192</v>
+        <v>3.885017094966863</v>
       </c>
       <c r="D17">
-        <v>3.854876426564921</v>
+        <v>3.739288822550025</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.484982861435399</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3.587065842391457</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.975809950046716</v>
+        <v>3.435322588082158</v>
       </c>
       <c r="C18">
-        <v>4.056729876748508</v>
+        <v>3.961211346009079</v>
       </c>
       <c r="D18">
-        <v>3.933079840996436</v>
+        <v>3.81634143933266</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3.55380940518913</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.661991112938885</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.054163343058332</v>
+        <v>3.502268849339338</v>
       </c>
       <c r="C19">
-        <v>4.138051888977992</v>
+        <v>4.034104642130156</v>
       </c>
       <c r="D19">
-        <v>4.008208662063857</v>
+        <v>3.890737915890309</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.620749598088373</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3.734987462467869</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.129607859834144</v>
+        <v>3.567925589493693</v>
       </c>
       <c r="C20">
-        <v>4.215992606998862</v>
+        <v>4.1039027060821</v>
       </c>
       <c r="D20">
-        <v>4.080438464401182</v>
+        <v>3.962619931713549</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.685931415531184</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3.806177007096944</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.2022996564141</v>
+        <v>3.632371404640682</v>
       </c>
       <c r="C21">
-        <v>4.29067842677779</v>
+        <v>4.170800887261464</v>
       </c>
       <c r="D21">
-        <v>4.149936020096785</v>
+        <v>4.032122812501845</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.749477756789458</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3.875675942495909</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.272387066757955</v>
+        <v>3.695680577445007</v>
       </c>
       <c r="C22">
-        <v>4.362230087268274</v>
+        <v>4.234984745995699</v>
       </c>
       <c r="D22">
-        <v>4.216859731441382</v>
+        <v>4.099375836130942</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.811506754873888</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3.943594679075402</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.340010986904979</v>
+        <v>3.757923213806103</v>
       </c>
       <c r="C23">
-        <v>4.43076295422068</v>
+        <v>4.296630509987214</v>
       </c>
       <c r="D23">
-        <v>4.281360042318619</v>
+        <v>4.164502406774284</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.87213180678872</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4.010038039495844</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.405305240000389</v>
+        <v>3.819165358682901</v>
       </c>
       <c r="C24">
-        <v>4.496387289961899</v>
+        <v>4.355905532367746</v>
       </c>
       <c r="D24">
-        <v>4.343579829300473</v>
+        <v>4.22762043572127</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.931461812358275</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>4.075105423103759</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.468396923131211</v>
+        <v>3.879469115616498</v>
       </c>
       <c r="C25">
-        <v>4.559208509822987</v>
+        <v>4.412968790664397</v>
       </c>
       <c r="D25">
-        <v>4.403654773451096</v>
+        <v>4.288842393178714</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.98960122563401</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4.138890952409117</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.529406736856425</v>
+        <v>3.938892752854721</v>
       </c>
       <c r="C26">
-        <v>4.619327425856176</v>
+        <v>4.467971259118931</v>
       </c>
       <c r="D26">
-        <v>4.461713713787188</v>
+        <v>4.348275706114237</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4.046650239690596</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4.201483620792938</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.588449298260873</v>
+        <v>3.997490804503554</v>
       </c>
       <c r="C27">
-        <v>4.676840478434252</v>
+        <v>4.521056289277241</v>
       </c>
       <c r="D27">
-        <v>4.517878983289581</v>
+        <v>4.406022816518666</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4.102704899736814</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4.262967442700512</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.645633438316593</v>
+        <v>4.055314171807744</v>
       </c>
       <c r="C28">
-        <v>4.731839956296946</v>
+        <v>4.572359954288615</v>
       </c>
       <c r="D28">
-        <v>4.572266728309177</v>
+        <v>4.462181496854861</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4.157857227517048</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4.323421562191009</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.701062484287006</v>
+        <v>4.11241021886579</v>
       </c>
       <c r="C29">
-        <v>4.784414205566281</v>
+        <v>4.622011398416403</v>
       </c>
       <c r="D29">
-        <v>4.624987212159688</v>
+        <v>4.516844967205072</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>4.212195317679275</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4.382920393267733</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.754834527861155</v>
+        <v>4.16882286581133</v>
       </c>
       <c r="C30">
-        <v>4.834647828220763</v>
+        <v>4.670133165482678</v>
       </c>
       <c r="D30">
-        <v>4.676145103646777</v>
+        <v>4.570102108899921</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4.265803449142136</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4.441533734982329</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.807042679664264</v>
+        <v>4.224592676286716</v>
       </c>
       <c r="C31">
-        <v>4.882621870482255</v>
+        <v>4.716841512723414</v>
       </c>
       <c r="D31">
-        <v>4.725839751232454</v>
+        <v>4.622037634684255</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4.318762130704057</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>4.499326875205877</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.857775310747558</v>
+        <v>4.279756940645411</v>
       </c>
       <c r="C32">
-        <v>4.928414001534374</v>
+        <v>4.762246702012869</v>
       </c>
       <c r="D32">
-        <v>4.774165443488324</v>
+        <v>4.67273219272318</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4.371148162737578</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4.556360702347492</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.907116281615258</v>
+        <v>4.334349755335268</v>
       </c>
       <c r="C33">
-        <v>4.972098682958517</v>
+        <v>4.806453268574381</v>
       </c>
       <c r="D33">
-        <v>4.821211656443787</v>
+        <v>4.722262604220245</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.42303470196638</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>4.612691801359301</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.955145159306476</v>
+        <v>4.388402098028525</v>
       </c>
       <c r="C34">
-        <v>5.01374732923474</v>
+        <v>4.849560281329729</v>
       </c>
       <c r="D34">
-        <v>4.867063288387768</v>
+        <v>4.770701875997077</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4.474491257730169</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4.668372535861057</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.001937423007141</v>
+        <v>4.441941900431424</v>
       </c>
       <c r="C35">
-        <v>5.053428459619374</v>
+        <v>4.891661569713131</v>
       </c>
       <c r="D35">
-        <v>4.911800882629453</v>
+        <v>4.818119438367023</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4.525583707741975</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>4.72345114400509</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.047564658620531</v>
+        <v>4.494994114822954</v>
       </c>
       <c r="C36">
-        <v>5.091207841663938</v>
+        <v>4.932845952647555</v>
       </c>
       <c r="D36">
-        <v>4.955500838665942</v>
+        <v>4.864581150657077</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>4.576374305297802</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4.777971809640571</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.092094742680577</v>
+        <v>4.547580778996649</v>
       </c>
       <c r="C37">
-        <v>5.127148626598878</v>
+        <v>4.973197445680452</v>
       </c>
       <c r="D37">
-        <v>4.998235612146815</v>
+        <v>4.910149480105528</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.626921615526611</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>4.831974728331525</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.135592015944106</v>
+        <v>4.59972107681731</v>
       </c>
       <c r="C38">
-        <v>5.16131147674698</v>
+        <v>5.012795450316226</v>
       </c>
       <c r="D38">
-        <v>5.040073903949474</v>
+        <v>4.954883529455433</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4.67728044952063</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4.885496184801575</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.178117446942837</v>
+        <v>4.651431394681945</v>
       </c>
       <c r="C39">
-        <v>5.193754685069059</v>
+        <v>5.051714934610274</v>
       </c>
       <c r="D39">
-        <v>5.081080838598197</v>
+        <v>4.998839150291722</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4.727501807149264</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4.938568603749011</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.219728785718707</v>
+        <v>4.702725375958288</v>
       </c>
       <c r="C40">
-        <v>5.224534286863987</v>
+        <v>5.090026583622564</v>
       </c>
       <c r="D40">
-        <v>5.121318132157985</v>
+        <v>5.042068944488295</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4.777632719771045</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4.991220600878453</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.260480707901753</v>
+        <v>4.753613968842829</v>
       </c>
       <c r="C41">
-        <v>5.253704163546549</v>
+        <v>5.127796944140869</v>
       </c>
       <c r="D41">
-        <v>5.160844249614501</v>
+        <v>5.084622319033575</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>4.82771609639891</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5.043477040390106</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.300424949211967</v>
+        <v>4.804105473050315</v>
       </c>
       <c r="C42">
-        <v>5.281316138301513</v>
+        <v>5.165088550372327</v>
       </c>
       <c r="D42">
-        <v>5.199714551597765</v>
+        <v>5.126545509102147</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4.877790574857436</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>5.095359065741254</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.339610430379373</v>
+        <v>4.854205582306387</v>
       </c>
       <c r="C43">
-        <v>5.307420063246507</v>
+        <v>5.201960030048908</v>
       </c>
       <c r="D43">
-        <v>5.237981430116694</v>
+        <v>5.167881574089006</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4.927890261584334</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>5.146884134002887</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.37808337237373</v>
+        <v>4.90391742290957</v>
       </c>
       <c r="C44">
-        <v>5.332063897525114</v>
+        <v>5.238466201786049</v>
       </c>
       <c r="D44">
-        <v>5.275694432732357</v>
+        <v>5.208670379102021</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4.978044462369748</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>5.198066055540989</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.415887401706556</v>
+        <v>4.953241590283675</v>
       </c>
       <c r="C45">
-        <v>5.355293775436365</v>
+        <v>5.274658140731017</v>
       </c>
       <c r="D45">
-        <v>5.312900374288997</v>
+        <v>5.248948526565957</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5.028277427317743</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5.248915005081596</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.453063645414173</v>
+        <v>5.002176179033177</v>
       </c>
       <c r="C46">
-        <v>5.377154063377748</v>
+        <v>5.310583232905486</v>
       </c>
       <c r="D46">
-        <v>5.349643434930472</v>
+        <v>5.288749280978863</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5.078607973980755</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>5.29943754072915</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.489650815141491</v>
+        <v>5.050716812464524</v>
       </c>
       <c r="C47">
-        <v>5.397687403779523</v>
+        <v>5.346285207151192</v>
       </c>
       <c r="D47">
-        <v>5.385965242624098</v>
+        <v>5.328102457294245</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>5.129049099713495</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5.349636625422185</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.525685279503834</v>
+        <v>5.098856667742016</v>
       </c>
       <c r="C48">
-        <v>5.416934743549833</v>
+        <v>5.381804142631994</v>
       </c>
       <c r="D48">
-        <v>5.421904937778331</v>
+        <v>5.367034290735204</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5.179607619087725</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>5.399511619855581</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.561201123599719</v>
+        <v>5.146586497562905</v>
       </c>
       <c r="C49">
-        <v>5.434935343582474</v>
+        <v>5.417176462061762</v>
       </c>
       <c r="D49">
-        <v>5.457499216722158</v>
+        <v>5.405567241138545</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5.23028369835769</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>5.449058285758379</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.596230194164079</v>
+        <v>5.193894650241679</v>
       </c>
       <c r="C50">
-        <v>5.451726764614074</v>
+        <v>5.452434882684989</v>
       </c>
       <c r="D50">
-        <v>5.492782349785749</v>
+        <v>5.44371978286599</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5.281070385701191</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>5.498268790437963</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.63080212835003</v>
+        <v>5.240767084229022</v>
       </c>
       <c r="C51">
-        <v>5.467344823052265</v>
+        <v>5.487608350590096</v>
       </c>
       <c r="D51">
-        <v>5.527786168439436</v>
+        <v>5.481506141287972</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5.331953144248921</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>5.547131683430381</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.66494436347963</v>
+        <v>5.287187383016182</v>
       </c>
       <c r="C52">
-        <v>5.4818235082994</v>
+        <v>5.52272194131934</v>
       </c>
       <c r="D52">
-        <v>5.562540014368258</v>
+        <v>5.518936039857069</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>5.38290941985242</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5.595631891676015</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.698754990117273</v>
+        <v>5.333186756826393</v>
       </c>
       <c r="C53">
-        <v>5.495428156275658</v>
+        <v>5.557873280351861</v>
       </c>
       <c r="D53">
-        <v>5.597142138806572</v>
+        <v>5.556107886396735</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5.433985604058891</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5.643812148839367</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.732611618122656</v>
+        <v>5.378982177887767</v>
       </c>
       <c r="C54">
-        <v>5.509319124603323</v>
+        <v>5.593450652555253</v>
       </c>
       <c r="D54">
-        <v>5.631965106803798</v>
+        <v>5.59347272696439</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>5.485510755680839</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5.691943465645923</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.766936265341425</v>
+        <v>5.424809008214931</v>
       </c>
       <c r="C55">
-        <v>5.52479456933452</v>
+        <v>5.62988510805707</v>
       </c>
       <c r="D55">
-        <v>5.667425746097764</v>
+        <v>5.631525357435006</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5.537834237102444</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5.740318479025729</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.802120925779565</v>
+        <v>5.470868614463693</v>
       </c>
       <c r="C56">
-        <v>5.543052154934657</v>
+        <v>5.667569909126759</v>
       </c>
       <c r="D56">
-        <v>5.70391155266069</v>
+        <v>5.670704974920294</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5.591242058659496</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5.789186711871585</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.838528186429901</v>
+        <v>5.517329417131295</v>
       </c>
       <c r="C57">
-        <v>5.565185174162204</v>
+        <v>5.706860961610649</v>
       </c>
       <c r="D57">
-        <v>5.741780389593866</v>
+        <v>5.711393340078825</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5.645955441902829</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5.838755522742312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.876491488002166</v>
+        <v>5.564327593761898</v>
       </c>
       <c r="C58">
-        <v>5.592173206298786</v>
+        <v>5.748075711361148</v>
       </c>
       <c r="D58">
-        <v>5.781359610535375</v>
+        <v>5.753912502204072</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>5.702130870681557</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>5.889190779061199</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.91631495771851</v>
+        <v>5.611967905492138</v>
       </c>
       <c r="C59">
-        <v>5.624867514485974</v>
+        <v>5.791492037924832</v>
       </c>
       <c r="D59">
-        <v>5.822944496092461</v>
+        <v>5.798522318770093</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>5.759860081740276</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>5.940617431233965</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.95827271619581</v>
+        <v>5.660324449236258</v>
       </c>
       <c r="C60">
-        <v>5.663970890955343</v>
+        <v>5.837346783958007</v>
       </c>
       <c r="D60">
-        <v>5.866795882517201</v>
+        <v>5.845418009777486</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>5.819171280325242</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>5.993120173338343</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.002607527661317</v>
+        <v>5.709441455536132</v>
       </c>
       <c r="C61">
-        <v>5.71001210888917</v>
+        <v>5.885833537444442</v>
       </c>
       <c r="D61">
-        <v>5.9131368653834</v>
+        <v>5.894728111786543</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>5.880031464445041</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>6.046744136113676</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.049528623654142</v>
+        <v>5.759334209689312</v>
       </c>
       <c r="C62">
-        <v>5.763316300523215</v>
+        <v>5.93710028343778</v>
       </c>
       <c r="D62">
-        <v>5.962148487652921</v>
+        <v>5.946513015937668</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5.942349977835957</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>6.101495692365959</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.099208487648264</v>
+        <v>5.809990067468411</v>
       </c>
       <c r="C63">
-        <v>5.823974436996025</v>
+        <v>5.991246395883272</v>
       </c>
       <c r="D63">
-        <v>6.013964384555739</v>
+        <v>6.000764551235764</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>6.005983365787595</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>6.157343431795361</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.151778349775613</v>
+        <v>5.861369664810502</v>
       </c>
       <c r="C64">
-        <v>5.891817380360599</v>
+        <v>6.048319205929389</v>
       </c>
       <c r="D64">
-        <v>6.068664472581788</v>
+        <v>6.057406926729633</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>6.070741499671027</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>6.214219378937036</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.207322125244597</v>
+        <v>5.913408371458412</v>
       </c>
       <c r="C65">
-        <v>5.966401970064999</v>
+        <v>6.10831024961128</v>
       </c>
       <c r="D65">
-        <v>6.126267949992658</v>
+        <v>6.116299369514834</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>6.136394873065514</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>6.272020548024901</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.265868572230641</v>
+        <v>5.96601805731555</v>
       </c>
       <c r="C66">
-        <v>6.047017061395719</v>
+        <v>6.171151283253599</v>
       </c>
       <c r="D66">
-        <v>6.186726125344006</v>
+        <v>6.177240681609158</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>6.202682822374871</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>6.330610944617988</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.327381603967662</v>
+        <v>6.019089248109008</v>
       </c>
       <c r="C67">
-        <v>6.132715112375522</v>
+        <v>6.236710429681575</v>
       </c>
       <c r="D67">
-        <v>6.249915890596544</v>
+        <v>6.239975792390715</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>6.269322379023948</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>6.38982413858134</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.391749048831323</v>
+        <v>6.07249373147118</v>
       </c>
       <c r="C68">
-        <v>6.222369542394797</v>
+        <v>6.304788918163784</v>
       </c>
       <c r="D68">
-        <v>6.315634953645497</v>
+        <v>6.304204195189725</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>6.336017355855856</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>6.449466539402168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.458770797706634</v>
+        <v>6.126087653236686</v>
       </c>
       <c r="C69">
-        <v>6.314751163358119</v>
+        <v>6.375119066071881</v>
       </c>
       <c r="D69">
-        <v>6.383600147625683</v>
+        <v>6.369589944305334</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6.402467287496948</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>6.509321452400111</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.528148232834969</v>
+        <v>6.17971509880554</v>
       </c>
       <c r="C70">
-        <v>6.40861144990273</v>
+        <v>6.447364392018749</v>
       </c>
       <c r="D70">
-        <v>6.453450117723361</v>
+        <v>6.435772730680339</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>6.468375800794029</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>6.569154179395376</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.599477935119397</v>
+        <v>6.233212087180519</v>
       </c>
       <c r="C71">
-        <v>6.502758913836256</v>
+        <v>6.521122856556236</v>
       </c>
       <c r="D71">
-        <v>6.524753340145283</v>
+        <v>6.502379346062596</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>6.533458068005394</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>6.628717865133426</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.67225344340032</v>
+        <v>6.2864108410631</v>
       </c>
       <c r="C72">
-        <v>6.596117904844085</v>
+        <v>6.595934180928926</v>
       </c>
       <c r="D72">
-        <v>6.597021720664129</v>
+        <v>6.569034902159163</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>6.597447047841988</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>6.68776018515404</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.745878533424097</v>
+        <v>6.339144090548023</v>
       </c>
       <c r="C73">
-        <v>6.687764924901291</v>
+        <v>6.671291861353527</v>
       </c>
       <c r="D73">
-        <v>6.669729058246772</v>
+        <v>6.635373132969939</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>6.660098365641313</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>6.746030552076889</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.819693451334266</v>
+        <v>6.391249160412391</v>
       </c>
       <c r="C74">
-        <v>6.776943260086728</v>
+        <v>6.746659799760914</v>
       </c>
       <c r="D74">
-        <v>6.742332690969916</v>
+        <v>6.701045254839181</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>6.721193755947717</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>6.803287352757366</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.893011945943204</v>
+        <v>6.442571572698909</v>
       </c>
       <c r="C75">
-        <v>6.863060468132886</v>
+        <v>6.821492539020331</v>
       </c>
       <c r="D75">
-        <v>6.814295974382714</v>
+        <v>6.76572707867059</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>6.780543088597455</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>6.859304677030948</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.965163192597701</v>
+        <v>6.49296794748185</v>
       </c>
       <c r="C76">
-        <v>6.945674576487033</v>
+        <v>6.895257105857543</v>
       </c>
       <c r="D76">
-        <v>6.88510910428186</v>
+        <v>6.829124168060038</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>6.837985125622192</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>6.913877961206651</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.035530788947651</v>
+        <v>6.542308092388341</v>
       </c>
       <c r="C77">
-        <v>7.024474375215902</v>
+        <v>6.967453882948853</v>
       </c>
       <c r="D77">
-        <v>6.954306220320416</v>
+        <v>6.890975111459822</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>6.8933871834051</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>6.966828072251417</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.103582064714824</v>
+        <v>6.590476275389634</v>
       </c>
       <c r="C78">
-        <v>7.099257864141205</v>
+        <v>7.037634001342615</v>
       </c>
       <c r="D78">
-        <v>7.021477542892053</v>
+        <v>6.951053066340369</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>6.946643921099281</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>7.018003619449857</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.168884314905358</v>
+        <v>6.637371728066446</v>
       </c>
       <c r="C79">
-        <v>7.169911459621164</v>
+        <v>7.105411471129042</v>
       </c>
       <c r="D79">
-        <v>7.086276222758229</v>
+        <v>7.009165840165327</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>6.997675487745362</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>7.067281578536456</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.231108361074715</v>
+        <v>6.682908538762658</v>
       </c>
       <c r="C80">
-        <v>7.236391363362843</v>
+        <v>7.170469388945883</v>
       </c>
       <c r="D80">
-        <v>7.148420364027372</v>
+        <v>7.06515481649428</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>7.046425241729432</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>7.114566366483298</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.290022431021571</v>
+        <v>6.727015079729181</v>
       </c>
       <c r="C81">
-        <v>7.2987076541512</v>
+        <v>7.232560650040467</v>
       </c>
       <c r="D81">
-        <v>7.207691172928156</v>
+        <v>7.118893034922202</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>7.092857239778223</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>7.159787923128313</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.345480206977714</v>
+        <v>6.769633117622302</v>
       </c>
       <c r="C82">
-        <v>7.356911148009289</v>
+        <v>7.291504339781714</v>
       </c>
       <c r="D82">
-        <v>7.263928371262762</v>
+        <v>7.170282710705555</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>7.136953651968993</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>7.202899073572732</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.397406454688364</v>
+        <v>6.810716724661766</v>
       </c>
       <c r="C83">
-        <v>7.411082799171686</v>
+        <v>7.347179250591907</v>
       </c>
       <c r="D83">
-        <v>7.317023963907027</v>
+        <v>7.219252434874147</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>7.178712225646536</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>7.243872616806055</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.445782637054658</v>
+        <v>6.850231110012838</v>
       </c>
       <c r="C84">
-        <v>7.46132529815001</v>
+        <v>7.399515915321953</v>
       </c>
       <c r="D84">
-        <v>7.366915263206891</v>
+        <v>7.265754249548692</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>7.21814388566315</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>7.282698354225034</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.490633890055189</v>
+        <v>6.888151433508096</v>
       </c>
       <c r="C85">
-        <v>7.507756499021247</v>
+        <v>7.448488236355273</v>
       </c>
       <c r="D85">
-        <v>7.41357783740605</v>
+        <v>7.309760743470423</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>7.255270526295954</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>7.319380288694452</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.532017863661478</v>
+        <v>6.924461285184115</v>
       </c>
       <c r="C86">
-        <v>7.550504296321547</v>
+        <v>7.494105165262424</v>
       </c>
       <c r="D86">
-        <v>7.457018552207134</v>
+        <v>7.351261856915308</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>7.290122984163477</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>7.353934021550632</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.570015558367368</v>
+        <v>6.959150724860482</v>
       </c>
       <c r="C87">
-        <v>7.589702657686609</v>
+        <v>7.536403411043874</v>
       </c>
       <c r="D87">
-        <v>7.497268984539789</v>
+        <v>7.390261279254993</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>7.322739105103276</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>7.386384285007815</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.604724610325275</v>
+        <v>6.992216563042644</v>
       </c>
       <c r="C88">
-        <v>7.625488807156334</v>
+        <v>7.575441298894401</v>
       </c>
       <c r="D88">
-        <v>7.534381266979959</v>
+        <v>7.426775717121958</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>7.35316246586908</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>7.416763280111958</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.636253773854406</v>
+        <v>7.023662025131522</v>
       </c>
       <c r="C89">
-        <v>7.658000990095727</v>
+        <v>7.611294181415914</v>
       </c>
       <c r="D89">
-        <v>7.568423592906126</v>
+        <v>7.460833346271603</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>7.38144122255289</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>7.445109325676757</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.664718649801201</v>
+        <v>7.053495718653013</v>
       </c>
       <c r="C90">
-        <v>7.687376772383475</v>
+        <v>7.64404969602419</v>
       </c>
       <c r="D90">
-        <v>7.599476178093329</v>
+        <v>7.492471599967526</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>7.4076269152493</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>7.471465328956107</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.690238495946423</v>
+        <v>7.081730774087387</v>
       </c>
       <c r="C91">
-        <v>7.713751788109155</v>
+        <v>7.673804060173459</v>
       </c>
       <c r="D91">
-        <v>7.6276279483769</v>
+        <v>7.521735223671407</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>7.431773513668032</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>7.495877597070734</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.712933871095217</v>
+        <v>7.108384135951404</v>
       </c>
       <c r="C92">
-        <v>7.737258831278742</v>
+        <v>7.700659167953735</v>
       </c>
       <c r="D92">
-        <v>7.652973851373567</v>
+        <v>7.548674957710532</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>7.453936594003551</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>7.518394893964945</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.732924914342737</v>
+        <v>7.133475933289101</v>
       </c>
       <c r="C93">
-        <v>7.758027210812394</v>
+        <v>7.724720481261925</v>
       </c>
       <c r="D93">
-        <v>7.675612694859604</v>
+        <v>7.57334624137051</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>7.474172778970225</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>7.539067659055694</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.750330104627462</v>
+        <v>7.157028936527193</v>
       </c>
       <c r="C94">
-        <v>7.776182306686295</v>
+        <v>7.746095001351607</v>
       </c>
       <c r="D94">
-        <v>7.695645423800951</v>
+        <v>7.595807755450022</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>7.492539139655011</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>7.557947373105847</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7.765265381512289</v>
+        <v>7.179068035328671</v>
       </c>
       <c r="C95">
-        <v>7.79184527941233</v>
+        <v>7.7648899526637</v>
       </c>
       <c r="D95">
-        <v>7.713173759036955</v>
+        <v>7.616120706379669</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>7.509092769851264</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>7.57508604311597</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.777843536584565</v>
+        <v>7.199619920580095</v>
       </c>
       <c r="C96">
-        <v>7.805132896056748</v>
+        <v>7.781211825462054</v>
       </c>
       <c r="D96">
-        <v>7.728299131789613</v>
+        <v>7.634348050913335</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>7.523890454537677</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>7.590535813005231</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.788173806916647</v>
+        <v>7.21871275587097</v>
       </c>
       <c r="C97">
-        <v>7.816157444580136</v>
+        <v>7.795165522017179</v>
       </c>
       <c r="D97">
-        <v>7.74112185864164</v>
+        <v>7.650553773325978</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>7.536988414397293</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>7.604348631199926</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.796361618998288</v>
+        <v>7.236375746898347</v>
       </c>
       <c r="C98">
-        <v>7.825026714654531</v>
+        <v>7.806853784088664</v>
       </c>
       <c r="D98">
-        <v>7.751740510989121</v>
+        <v>7.664802377898425</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>7.54844210654794</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>7.61657599099733</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.80250844424656</v>
+        <v>7.252638915654741</v>
       </c>
       <c r="C99">
-        <v>7.831844028257789</v>
+        <v>7.816376736092353</v>
       </c>
       <c r="D99">
-        <v>7.760251441091451</v>
+        <v>7.677158414863982</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>7.558306015324138</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>7.627268718187744</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.806711736958329</v>
+        <v>7.267532917749622</v>
       </c>
       <c r="C100">
-        <v>7.836708307118943</v>
+        <v>7.823831588953154</v>
       </c>
       <c r="D100">
-        <v>7.766748433731784</v>
+        <v>7.687686072874306</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>7.566633506683122</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>7.636476801206066</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.809064932774921</v>
+        <v>7.281088847868654</v>
       </c>
       <c r="C101">
-        <v>7.83971416707479</v>
+        <v>7.829312430686524</v>
       </c>
       <c r="D101">
-        <v>7.771322458254621</v>
+        <v>7.696448908324701</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>7.573476746104657</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>7.644249284679531</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.809657491194752</v>
+        <v>7.293338046226197</v>
       </c>
       <c r="C102">
-        <v>7.840952031679005</v>
+        <v>7.832910109511618</v>
       </c>
       <c r="D102">
-        <v>7.774061500530567</v>
+        <v>7.703509589091089</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>7.578886664502317</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>7.650634177946676</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.808574969756396</v>
+        <v>7.304311974317127</v>
       </c>
       <c r="C103">
-        <v>7.840508259165423</v>
+        <v>7.834712162428429</v>
       </c>
       <c r="D103">
-        <v>7.775050458283968</v>
+        <v>7.708929711313076</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>7.582912893805378</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>7.655678381339325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.805899120584658</v>
+        <v>7.314042097285841</v>
       </c>
       <c r="C104">
-        <v>7.838465278228968</v>
+        <v>7.834802768973511</v>
       </c>
       <c r="D104">
-        <v>7.774371086429035</v>
+        <v>7.712769642658349</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>7.585603727787626</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>7.65942763892787</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.801708002302664</v>
+        <v>7.32255976386359</v>
       </c>
       <c r="C105">
-        <v>7.834901729142802</v>
+        <v>7.833262747526755</v>
       </c>
       <c r="D105">
-        <v>7.772101981646562</v>
+        <v>7.715088385549244</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>7.587006107244493</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7.661926499137374</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.796076102047249</v>
+        <v>7.329896113425613</v>
       </c>
       <c r="C106">
-        <v>7.829892607545517</v>
+        <v>7.830169612577634</v>
       </c>
       <c r="D106">
-        <v>7.768318597536132</v>
+        <v>7.715943442256973</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>7.587165583637964</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>7.663218305738943</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.789074463648942</v>
+        <v>7.336082018437454</v>
       </c>
       <c r="C107">
-        <v>7.823509408876997</v>
+        <v>7.825597658094665</v>
       </c>
       <c r="D107">
-        <v>7.763093283378433</v>
+        <v>7.715390819444944</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>7.586126365575572</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>7.663345179883775</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.780770819015937</v>
+        <v>7.341148009873284</v>
       </c>
       <c r="C108">
-        <v>7.815820271912892</v>
+        <v>7.819618008754649</v>
       </c>
       <c r="D108">
-        <v>7.756495340915162</v>
+        <v>7.713484952276615</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>7.58393125038163</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>7.662348018499162</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.771229720521947</v>
+        <v>7.345124232551305</v>
       </c>
       <c r="C109">
-        <v>7.806890120262977</v>
+        <v>7.812298706694301</v>
       </c>
       <c r="D109">
-        <v>7.748591094663449</v>
+        <v>7.71027865357917</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>7.580621755759424</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>7.660266503367569</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.760512672763998</v>
+        <v>7.348040402517427</v>
       </c>
       <c r="C110">
-        <v>7.796780800966122</v>
+        <v>7.803704794996535</v>
       </c>
       <c r="D110">
-        <v>7.739443972166111</v>
+        <v>7.705823155040351</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>7.576238083965178</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>7.657139108866217</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.748678262495913</v>
+        <v>7.349925770496423</v>
       </c>
       <c r="C111">
-        <v>7.785551219575755</v>
+        <v>7.793898403120013</v>
       </c>
       <c r="D111">
-        <v>7.729114591322158</v>
+        <v>7.700168053397902</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>7.570819137344329</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>7.653003115429816</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.735782285865816</v>
+        <v>7.350809079821812</v>
       </c>
       <c r="C112">
-        <v>7.773257471289501</v>
+        <v>7.782938860511854</v>
       </c>
       <c r="D112">
-        <v>7.717660852499918</v>
+        <v>7.693361318586221</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>7.56440253599597</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>7.647894632973273</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.721877872342073</v>
+        <v>7.350718547325999</v>
       </c>
       <c r="C113">
-        <v>7.759952967830833</v>
+        <v>7.7708828067327</v>
       </c>
       <c r="D113">
-        <v>7.705138033605978</v>
+        <v>7.685449310806813</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>7.557024667848515</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>7.641848620877103</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.707015604901634</v>
+        <v>7.349681834416297</v>
       </c>
       <c r="C114">
-        <v>7.745688559895243</v>
+        <v>7.757784293811238</v>
       </c>
       <c r="D114">
-        <v>7.691598886683036</v>
+        <v>7.67647680575933</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>7.548720669134982</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>7.634898914837888</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.691243636202326</v>
+        <v>7.347726055659791</v>
       </c>
       <c r="C115">
-        <v>7.730512655059244</v>
+        <v>7.743694888867831</v>
       </c>
       <c r="D115">
-        <v>7.677093734891679</v>
+        <v>7.666487008843862</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>7.539524519583472</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>7.627078254546475</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.674607800568229</v>
+        <v>7.344877748108645</v>
       </c>
       <c r="C116">
-        <v>7.714471331116562</v>
+        <v>7.728663759306944</v>
       </c>
       <c r="D116">
-        <v>7.661670568987811</v>
+        <v>7.655521600830953</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>7.529469042884168</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>7.618418299646129</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.657151721702889</v>
+        <v>7.341162878705324</v>
       </c>
       <c r="C117">
-        <v>7.697608444855375</v>
+        <v>7.712737785356342</v>
       </c>
       <c r="D117">
-        <v>7.645375142605087</v>
+        <v>7.643620766310068</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>7.518585972728451</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>7.608949663541942</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.638916916110667</v>
+        <v>7.336606838811153</v>
       </c>
       <c r="C118">
-        <v>7.679965736329037</v>
+        <v>7.695961650976331</v>
       </c>
       <c r="D118">
-        <v>7.628251065811894</v>
+        <v>7.630823218419136</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>7.506905941066944</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>7.598701940080901</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.619942892286499</v>
+        <v>7.331234430458805</v>
       </c>
       <c r="C119">
-        <v>7.66158292870186</v>
+        <v>7.6783779426309</v>
       </c>
       <c r="D119">
-        <v>7.610339896540475</v>
+        <v>7.617166238175867</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>7.494458526769486</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>7.587703733668239</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.600267245622372</v>
+        <v>7.325069879532435</v>
       </c>
       <c r="C120">
-        <v>7.642497823772309</v>
+        <v>7.660027240573057</v>
       </c>
       <c r="D120">
-        <v>7.591681229591184</v>
+        <v>7.602685720652469</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>7.481272279788823</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>7.57598268757161</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.579925749274176</v>
+        <v>7.31813681863873</v>
       </c>
       <c r="C121">
-        <v>7.622746393291671</v>
+        <v>7.640948207120885</v>
       </c>
       <c r="D121">
-        <v>7.572312782998055</v>
+        <v>7.58741620803449</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>7.467374764835689</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>7.563565510294688</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.558952440986959</v>
+        <v>7.310458309223641</v>
       </c>
       <c r="C122">
-        <v>7.602362866207052</v>
+        <v>7.621177673002743</v>
       </c>
       <c r="D122">
-        <v>7.552270481609145</v>
+        <v>7.571390931250033</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>7.452792581180225</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>7.550477998324006</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.537379706032586</v>
+        <v>7.30205682383523</v>
       </c>
       <c r="C123">
-        <v>7.58137981196467</v>
+        <v>7.600750716904671</v>
       </c>
       <c r="D123">
-        <v>7.5315885377873</v>
+        <v>7.554641852400133</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>7.437551401103938</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>7.536745072861975</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.515238356385605</v>
+        <v>7.292954278524904</v>
       </c>
       <c r="C124">
-        <v>7.55982822001403</v>
+        <v>7.57970074683034</v>
       </c>
       <c r="D124">
-        <v>7.510299529177461</v>
+        <v>7.537199702584028</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>7.421675999671948</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>7.522390802419834</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.492557706274641</v>
+        <v>7.283172013799191</v>
       </c>
       <c r="C125">
-        <v>7.53773757565527</v>
+        <v>7.558059578681549</v>
       </c>
       <c r="D125">
-        <v>7.488434473565578</v>
+        <v>7.519094022813111</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>7.405190284271202</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>7.507438431962314</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.469365644238419</v>
+        <v>7.272730827170903</v>
       </c>
       <c r="C126">
-        <v>7.515135932372472</v>
+        <v>7.535857505458395</v>
       </c>
       <c r="D126">
-        <v>7.466022900743448</v>
+        <v>7.500353203233226</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>7.388117321768861</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>7.491910405922256</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.445688701824918</v>
+        <v>7.261650962484246</v>
       </c>
       <c r="C127">
-        <v>7.492049980795157</v>
+        <v>7.513123381239262</v>
       </c>
       <c r="D127">
-        <v>7.443092921516567</v>
+        <v>7.48100452221242</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>7.370479363591321</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>7.475828397114996</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.42155211907335</v>
+        <v>7.2499521327043</v>
       </c>
       <c r="C128">
-        <v>7.468505114427685</v>
+        <v>7.489884663626043</v>
       </c>
       <c r="D128">
-        <v>7.419671293855399</v>
+        <v>7.461074185147159</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>7.352297877852181</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>7.459213332963786</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.396979906916382</v>
+        <v>7.23765351730371</v>
       </c>
       <c r="C129">
-        <v>7.444525492283864</v>
+        <v>7.466167511527787</v>
       </c>
       <c r="D129">
-        <v>7.395783486244955</v>
+        <v>7.440587362252794</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>7.333593569038807</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>7.442085409632153</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.371994906624668</v>
+        <v>7.224773775004837</v>
       </c>
       <c r="C130">
-        <v>7.420134098560562</v>
+        <v>7.441996805329074</v>
       </c>
       <c r="D130">
-        <v>7.37145373832355</v>
+        <v>7.419568225271618</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>7.314386408912723</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>7.424464135039555</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.346618846431182</v>
+        <v>7.211331058190399</v>
       </c>
       <c r="C131">
-        <v>7.395352799480442</v>
+        <v>7.417396248274802</v>
       </c>
       <c r="D131">
-        <v>7.346705118875451</v>
+        <v>7.398039984110541</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>7.294695665468661</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>7.406368325320384</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.320872395457577</v>
+        <v>7.197343019336055</v>
       </c>
       <c r="C132">
-        <v>7.370202397430035</v>
+        <v>7.392388383168139</v>
       </c>
       <c r="D132">
-        <v>7.321559581264863</v>
+        <v>7.376024921541425</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>7.274539916039946</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>7.387816156137775</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.294775215066443</v>
+        <v>7.182826823253211</v>
       </c>
       <c r="C133">
-        <v>7.344702682514839</v>
+        <v>7.36699468106896</v>
       </c>
       <c r="D133">
-        <v>7.296038016395837</v>
+        <v>7.353544426284113</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>7.253937090038932</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>7.368825161903808</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.268346007750796</v>
+        <v>7.167799156125261</v>
       </c>
       <c r="C134">
-        <v>7.318872481648893</v>
+        <v>7.341235563339025</v>
       </c>
       <c r="D134">
-        <v>7.270160303284252</v>
+        <v>7.330619033304924</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>7.232904462447553</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>7.349412269743379</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.241602563678375</v>
+        <v>7.152276238060513</v>
       </c>
       <c r="C135">
-        <v>7.292729705292111</v>
+        <v>7.315130479378127</v>
       </c>
       <c r="D135">
-        <v>7.243945357332053</v>
+        <v>7.307268439425272</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>7.211458711032439</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>7.329593818076031</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.214561804999846</v>
+        <v>7.136273832141441</v>
       </c>
       <c r="C136">
-        <v>7.266291391943936</v>
+        <v>7.288697930823852</v>
       </c>
       <c r="D136">
-        <v>7.217411176391078</v>
+        <v>7.283511565286956</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>7.189615900709719</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>7.309385569625415</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.187239828021884</v>
+        <v>7.119807255818702</v>
       </c>
       <c r="C137">
-        <v>7.239573750497646</v>
+        <v>7.261955536421951</v>
       </c>
       <c r="D137">
-        <v>7.190574884703417</v>
+        <v>7.259366544196587</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>7.167391537564007</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>7.28880274610007</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.159651943346125</v>
+        <v>7.102891391233034</v>
       </c>
       <c r="C138">
-        <v>7.212592200555344</v>
+        <v>7.234920049435825</v>
       </c>
       <c r="D138">
-        <v>7.163452774806092</v>
+        <v>7.234850796706905</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>7.144800562876935</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>7.267860024327756</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.131812714069853</v>
+        <v>7.085540695727414</v>
       </c>
       <c r="C139">
-        <v>7.185361410799339</v>
+        <v>7.207607427941048</v>
       </c>
       <c r="D139">
-        <v>7.136060347483449</v>
+        <v>7.209981022613738</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>7.121857389151534</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>7.246571581489303</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.103735992143197</v>
+        <v>7.067769212412442</v>
       </c>
       <c r="C140">
-        <v>7.157895335511789</v>
+        <v>7.180032843013252</v>
       </c>
       <c r="D140">
-        <v>7.108412349849014</v>
+        <v>7.184773243977936</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>7.09857591269822</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>7.224951087453159</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.075434952963772</v>
+        <v>7.049590580320507</v>
       </c>
       <c r="C141">
-        <v>7.130207249329909</v>
+        <v>7.152210744481491</v>
       </c>
       <c r="D141">
-        <v>7.080522811639235</v>
+        <v>7.159242835750387</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>7.074969532784154</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>7.203011741200005</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.046922128297793</v>
+        <v>7.031018044942331</v>
       </c>
       <c r="C142">
-        <v>7.10230978032078</v>
+        <v>7.124154869195101</v>
       </c>
       <c r="D142">
-        <v>7.052405079795915</v>
+        <v>7.133404533530125</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>7.051051171982454</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>7.180766277491146</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.018209437605947</v>
+        <v>7.012064467983806</v>
       </c>
       <c r="C143">
-        <v>7.074214941455849</v>
+        <v>7.095878300127381</v>
       </c>
       <c r="D143">
-        <v>7.024071851412561</v>
+        <v>7.107272483852998</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>7.026833283249971</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>7.158226982087951</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6.989308217851318</v>
+        <v>6.992742337701817</v>
       </c>
       <c r="C144">
-        <v>7.045934160561226</v>
+        <v>7.067393475296512</v>
       </c>
       <c r="D144">
-        <v>6.995535205119974</v>
+        <v>7.080860240211591</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>7.002327882898424</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>7.135405717426104</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6.960229251859452</v>
+        <v>6.973063778494712</v>
       </c>
       <c r="C145">
-        <v>7.017478308816885</v>
+        <v>7.038712240231389</v>
       </c>
       <c r="D145">
-        <v>6.966806630977698</v>
+        <v>7.054180815412998</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>6.977546545871278</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>7.112313920216922</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6.930982795302318</v>
+        <v>6.953040560567826</v>
       </c>
       <c r="C146">
-        <v>6.988857727874294</v>
+        <v>7.009845855684794</v>
       </c>
       <c r="D146">
-        <v>6.937897058941813</v>
+        <v>7.027246673119008</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>6.952500442749348</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>7.08896263798841</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6.901578602373237</v>
+        <v>6.932684109807389</v>
       </c>
       <c r="C147">
-        <v>6.960082255658746</v>
+        <v>6.980805046738149</v>
       </c>
       <c r="D147">
-        <v>6.908816885973485</v>
+        <v>7.000069780249832</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>6.92720033292033</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>7.0653625182313</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.872025950213228</v>
+        <v>6.912005514841565</v>
       </c>
       <c r="C148">
-        <v>6.931161250919767</v>
+        <v>6.951600007587547</v>
       </c>
       <c r="D148">
-        <v>6.879576001850627</v>
+        <v>6.972661601070524</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>6.901656598847999</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>7.041523845806692</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.842333662150386</v>
+        <v>6.891015540448266</v>
       </c>
       <c r="C149">
-        <v>6.902103616589749</v>
+        <v>6.922240448031422</v>
       </c>
       <c r="D149">
-        <v>6.850183813742563</v>
+        <v>6.945033132338324</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>6.875879243869051</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>7.017456538894935</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.81251012980935</v>
+        <v>6.869724635808296</v>
       </c>
       <c r="C150">
-        <v>6.872917822008696</v>
+        <v>6.8927355963018</v>
       </c>
       <c r="D150">
-        <v>6.820649269606808</v>
+        <v>6.91719491940925</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>6.849877915628928</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>6.993170167769342</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.782563334147161</v>
+        <v>6.848142932273817</v>
       </c>
       <c r="C151">
-        <v>6.843611924067956</v>
+        <v>6.863094242192165</v>
       </c>
       <c r="D151">
-        <v>6.790980880459813</v>
+        <v>6.889157066145033</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>6.823661914724294</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>6.96867397078058</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6.75250086546396</v>
+        <v>6.826280272931192</v>
       </c>
       <c r="C152">
-        <v>6.81419358732879</v>
+        <v>6.83332473932244</v>
       </c>
       <c r="D152">
-        <v>6.761186741577436</v>
+        <v>6.860929269046248</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>6.797240205691208</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>6.943976855900994</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6.722329942440934</v>
+        <v>6.804146208187469</v>
       </c>
       <c r="C153">
-        <v>6.784670103161907</v>
+        <v>6.803435044282097</v>
       </c>
       <c r="D153">
-        <v>6.731274552674166</v>
+        <v>6.832520812556377</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>6.770621434986657</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>6.919087426670208</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.692057430251997</v>
+        <v>6.781749992199035</v>
       </c>
       <c r="C154">
-        <v>6.755048407956846</v>
+        <v>6.773432718726687</v>
       </c>
       <c r="D154">
-        <v>6.701251637109406</v>
+        <v>6.80394060971288</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>6.743813932654313</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>6.894013975933447</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.661689857794221</v>
+        <v>6.75910062035863</v>
       </c>
       <c r="C155">
-        <v>6.725335100446109</v>
+        <v>6.74332496497742</v>
       </c>
       <c r="D155">
-        <v>6.671124960167296</v>
+        <v>6.775197192195678</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>6.716825735862339</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>6.868764514409158</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6.631233434078707</v>
+        <v>6.736206816330466</v>
       </c>
       <c r="C156">
-        <v>6.695536458186904</v>
+        <v>6.713118627549599</v>
       </c>
       <c r="D156">
-        <v>6.640901146454018</v>
+        <v>6.746298750452559</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>6.689664585655027</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>6.843346765876064</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6.600694063823561</v>
+        <v>6.713077031559841</v>
       </c>
       <c r="C157">
-        <v>6.66565845324109</v>
+        <v>6.682820225930033</v>
       </c>
       <c r="D157">
-        <v>6.610586496453619</v>
+        <v>6.717253126869823</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>6.66233795194156</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>6.817768185783865</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6.570077362288584</v>
+        <v>6.689719480967275</v>
       </c>
       <c r="C158">
-        <v>6.635706767092818</v>
+        <v>6.652435955321055</v>
       </c>
       <c r="D158">
-        <v>6.580187002283737</v>
+        <v>6.688067843684202</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>6.634853028782728</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>6.792035969342765</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6.539388669386453</v>
+        <v>6.666142128520586</v>
       </c>
       <c r="C159">
-        <v>6.605686804840282</v>
+        <v>6.621971716933339</v>
       </c>
       <c r="D159">
-        <v>6.549708362688795</v>
+        <v>6.658750110637974</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>6.60721675783391</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>6.766157055529514</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6.50863306310691</v>
+        <v>6.642352691866539</v>
       </c>
       <c r="C160">
-        <v>6.575603708697082</v>
+        <v>6.591433118169669</v>
       </c>
       <c r="D160">
-        <v>6.519155997307038</v>
+        <v>6.629306835163993</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>6.579435826814017</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>6.740138146108434</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6.477815372286937</v>
+        <v>6.618358669084273</v>
       </c>
       <c r="C161">
-        <v>6.545462370836763</v>
+        <v>6.560825500431625</v>
       </c>
       <c r="D161">
-        <v>6.488535060247062</v>
+        <v>6.599744643898982</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>6.551516684506335</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>6.713985701144459</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6.446940188759613</v>
+        <v>6.594167328354108</v>
       </c>
       <c r="C162">
-        <v>6.515267445612353</v>
+        <v>6.530153939054085</v>
       </c>
       <c r="D162">
-        <v>6.457850453005787</v>
+        <v>6.570069880437733</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>6.523465548061662</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>6.687705961447218</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6.416011878910033</v>
+        <v>6.569785715313514</v>
       </c>
       <c r="C163">
-        <v>6.485023361181455</v>
+        <v>6.49942326867102</v>
       </c>
       <c r="D163">
-        <v>6.427106836760166</v>
+        <v>6.540288633632385</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>6.495288408821964</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>6.661304943550794</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6.385034594668457</v>
+        <v>6.545220672603467</v>
       </c>
       <c r="C164">
-        <v>6.454734330565665</v>
+        <v>6.468638083005888</v>
       </c>
       <c r="D164">
-        <v>6.396308644062792</v>
+        <v>6.510406729875469</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>6.466991045801611</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>6.634788457319981</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6.354012283961191</v>
+        <v>6.520478832201785</v>
       </c>
       <c r="C165">
-        <v>6.42440436217195</v>
+        <v>6.437802758015763</v>
       </c>
       <c r="D165">
-        <v>6.365460089969932</v>
+        <v>6.480429762155335</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>6.438579025809375</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>6.60816210835578</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6.322948700676286</v>
+        <v>6.495566624522461</v>
       </c>
       <c r="C166">
-        <v>6.394037269802205</v>
+        <v>6.40692145149838</v>
       </c>
       <c r="D166">
-        <v>6.334565182629206</v>
+        <v>6.4503630835001</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>6.410057719971838</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>6.581431304735617</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6.291847414120026</v>
+        <v>6.470490293960137</v>
       </c>
       <c r="C167">
-        <v>6.363636682175937</v>
+        <v>6.375998124273932</v>
       </c>
       <c r="D167">
-        <v>6.303627733353881</v>
+        <v>6.420211828917022</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>6.381432301078083</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>6.554601269130908</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6.260711818009428</v>
+        <v>6.445255890320329</v>
       </c>
       <c r="C168">
-        <v>6.333206051989828</v>
+        <v>6.3450365395979</v>
       </c>
       <c r="D168">
-        <v>6.27265136620694</v>
+        <v>6.389980917866366</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>6.352707760640635</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>6.527677037053474</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6.229545139033982</v>
+        <v>6.419869280964842</v>
       </c>
       <c r="C169">
-        <v>6.302748664536743</v>
+        <v>6.314040282557336</v>
       </c>
       <c r="D169">
-        <v>6.241639527120057</v>
+        <v>6.359675063742175</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>6.323888905899892</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>6.500663473822588</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6.198350445018897</v>
+        <v>6.394336163101784</v>
       </c>
       <c r="C170">
-        <v>6.272267645905488</v>
+        <v>6.283012759352582</v>
       </c>
       <c r="D170">
-        <v>6.210595492569329</v>
+        <v>6.329298786888196</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>6.29498037475818</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>6.473565269273307</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6.167130652658649</v>
+        <v>6.368662054254052</v>
       </c>
       <c r="C171">
-        <v>6.24176597078114</v>
+        <v>6.251957215018914</v>
       </c>
       <c r="D171">
-        <v>6.179522377829216</v>
+        <v>6.298856414354782</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>6.265986635964094</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>6.446386954818688</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6.135888534896356</v>
+        <v>6.342852307882887</v>
       </c>
       <c r="C172">
-        <v>6.211246469864331</v>
+        <v>6.220876732648659</v>
       </c>
       <c r="D172">
-        <v>6.148423144819156</v>
+        <v>6.268352098638101</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>6.236911997926512</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>6.419132901316137</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6.104626727930518</v>
+        <v>6.316912120383717</v>
       </c>
       <c r="C173">
-        <v>6.180711836926927</v>
+        <v>6.189774249550758</v>
       </c>
       <c r="D173">
-        <v>6.117300609588478</v>
+        <v>6.237789812638192</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>6.207760612903964</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>6.391807327558403</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6.07334773789065</v>
+        <v>6.290846523181805</v>
       </c>
       <c r="C174">
-        <v>6.150164635522211</v>
+        <v>6.158652556444655</v>
       </c>
       <c r="D174">
-        <v>6.086157449422426</v>
+        <v>6.207173369898202</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>6.178536481139485</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>6.364414307450842</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6.042053947176084</v>
+        <v>6.264660400550921</v>
       </c>
       <c r="C175">
-        <v>6.119607305368496</v>
+        <v>6.127514311226617</v>
       </c>
       <c r="D175">
-        <v>6.054996209591264</v>
+        <v>6.176506419046395</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>6.149243466097696</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>6.336957770278604</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6.010747620497034</v>
+        <v>6.238358491503574</v>
       </c>
       <c r="C176">
-        <v>6.089042168423932</v>
+        <v>6.096362036056288</v>
       </c>
       <c r="D176">
-        <v>6.023819309784632</v>
+        <v>6.145792460835081</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>6.119885291202679</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>6.309441512773669</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5.979430910610928</v>
+        <v>6.211945383678025</v>
       </c>
       <c r="C177">
-        <v>6.058471434667905</v>
+        <v>6.065198139852408</v>
       </c>
       <c r="D177">
-        <v>5.992629050240518</v>
+        <v>6.115034847595407</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>6.090465530471252</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>6.281869195753578</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5.948105863789393</v>
+        <v>6.185425533211268</v>
       </c>
       <c r="C178">
-        <v>6.02789720760273</v>
+        <v>6.034024913724716</v>
       </c>
       <c r="D178">
-        <v>5.96142761756575</v>
+        <v>6.084236791651302</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>6.060987653502835</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>6.254244357190042</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5.916774425009392</v>
+        <v>6.15880326175032</v>
       </c>
       <c r="C179">
-        <v>5.997321489488592</v>
+        <v>6.002844522992619</v>
       </c>
       <c r="D179">
-        <v>5.930217090267522</v>
+        <v>6.053401372851916</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>6.031455004366759</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>6.226570406983014</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5.885438442896552</v>
+        <v>6.132082752243209</v>
       </c>
       <c r="C180">
-        <v>5.966746186324328</v>
+        <v>5.971659052944138</v>
       </c>
       <c r="D180">
-        <v>5.898999444031545</v>
+        <v>6.022531539462236</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>6.001870775066701</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>6.198850640137772</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5.854099674425425</v>
+        <v>6.105268069827821</v>
       </c>
       <c r="C181">
-        <v>5.936173112586246</v>
+        <v>5.940470482884288</v>
       </c>
       <c r="D181">
-        <v>5.867776556726954</v>
+        <v>5.991630120281301</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>5.972238073626168</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>6.171088241949246</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5.822759789392261</v>
+        <v>6.078363155196499</v>
       </c>
       <c r="C182">
-        <v>5.905603995736699</v>
+        <v>5.909280665986875</v>
       </c>
       <c r="D182">
-        <v>5.836550213182128</v>
+        <v>5.960699821655839</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>5.942559896298201</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>6.143286285176046</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5.791420374668262</v>
+        <v>6.051371823141183</v>
       </c>
       <c r="C183">
-        <v>5.875040480513589</v>
+        <v>5.878091405110291</v>
       </c>
       <c r="D183">
-        <v>5.805322109713463</v>
+        <v>5.92974324125518</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>5.912839116978057</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>6.115447725767506</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5.760082938245659</v>
+        <v>6.02429778116032</v>
       </c>
       <c r="C184">
-        <v>5.844484133011541</v>
+        <v>5.846904405931809</v>
       </c>
       <c r="D184">
-        <v>5.774093858447388</v>
+        <v>5.898762863686501</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>5.883078503290231</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>6.087575439003246</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5.728748913087784</v>
+        <v>5.997144622645847</v>
       </c>
       <c r="C185">
-        <v>5.813936444564839</v>
+        <v>5.815721265357277</v>
       </c>
       <c r="D185">
-        <v>5.742866991422778</v>
+        <v>5.867761073553623</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>5.853280740822362</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>6.059672200487777</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5.697419660788976</v>
+        <v>5.969915826941855</v>
       </c>
       <c r="C186">
-        <v>5.783398835441882</v>
+        <v>5.784543533582705</v>
       </c>
       <c r="D186">
-        <v>5.711642964497059</v>
+        <v>5.836740153379454</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>5.823448410921396</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>6.031740662107042</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5.66609647505945</v>
+        <v>5.942614775288973</v>
       </c>
       <c r="C187">
-        <v>5.752872658360321</v>
+        <v>5.753372677881627</v>
       </c>
       <c r="D187">
-        <v>5.68042316106119</v>
+        <v>5.805702290838353</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>5.793583989571528</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>6.003783411043376</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5.634780585035895</v>
+        <v>5.915244744403704</v>
       </c>
       <c r="C188">
-        <v>5.722359201831704</v>
+        <v>5.722210079656952</v>
       </c>
       <c r="D188">
-        <v>5.649208895572616</v>
+        <v>5.774649581260313</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>5.763689880973209</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>5.975802948105066</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5.603473158435983</v>
+        <v>5.887808908009001</v>
       </c>
       <c r="C189">
-        <v>5.691859693343863</v>
+        <v>5.691057070741359</v>
       </c>
       <c r="D189">
-        <v>5.618001416920825</v>
+        <v>5.743584029820716</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>5.733768399494963</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>5.947801679702276</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5.572175304552835</v>
+        <v>5.860310349961319</v>
       </c>
       <c r="C190">
-        <v>5.66137530238901</v>
+        <v>5.659914914961053</v>
       </c>
       <c r="D190">
-        <v>5.586801911621263</v>
+        <v>5.712507564086221</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>5.703821764268013</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>5.919781917091728</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5.540888077110452</v>
+        <v>5.832752058407023</v>
       </c>
       <c r="C191">
-        <v>5.630907143345367</v>
+        <v>5.628784804746837</v>
       </c>
       <c r="D191">
-        <v>5.555611506862604</v>
+        <v>5.681422031446423</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>5.673852127729966</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>5.891745916509572</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5.509612476972576</v>
+        <v>5.805136928620155</v>
       </c>
       <c r="C192">
-        <v>5.60045627821864</v>
+        <v>5.597667887829328</v>
       </c>
       <c r="D192">
-        <v>5.524431273396214</v>
+        <v>5.650329186163407</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>5.643861564087914</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>5.863695851773056</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5.478349454726765</v>
+        <v>5.777467773567453</v>
       </c>
       <c r="C193">
-        <v>5.570023719252476</v>
+        <v>5.56656525513986</v>
       </c>
       <c r="D193">
-        <v>5.493262228294244</v>
+        <v>5.619230731435118</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>5.613852068097346</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>5.835633807106962</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5.447099913135506</v>
+        <v>5.749747318504781</v>
       </c>
       <c r="C194">
-        <v>5.539610431409391</v>
+        <v>5.535477936579908</v>
       </c>
       <c r="D194">
-        <v>5.462105337564746</v>
+        <v>5.58812829795344</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>5.583825564134332</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>5.807561812668212</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5.415864709474411</v>
+        <v>5.721978205111847</v>
       </c>
       <c r="C195">
-        <v>5.509217334735521</v>
+        <v>5.504406924589425</v>
       </c>
       <c r="D195">
-        <v>5.430961518645923</v>
+        <v>5.557023428553076</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>5.553783914697591</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>5.779481827949816</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5.384644657750192</v>
+        <v>5.694162999633503</v>
       </c>
       <c r="C196">
-        <v>5.478845306608542</v>
+        <v>5.47335316376099</v>
       </c>
       <c r="D196">
-        <v>5.399831642775128</v>
+        <v>5.525917611705824</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>5.523728912180066</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>5.751395742515297</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5.353440530816345</v>
+        <v>5.666304187884314</v>
       </c>
       <c r="C197">
-        <v>5.448495183876153</v>
+        <v>5.442317538547607</v>
       </c>
       <c r="D197">
-        <v>5.368716537243327</v>
+        <v>5.494812285429901</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>5.493662275702468</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>5.723305379195274</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5.322253062380211</v>
+        <v>5.638404180704905</v>
       </c>
       <c r="C198">
-        <v>5.41816776489325</v>
+        <v>5.411300907902419</v>
       </c>
       <c r="D198">
-        <v>5.337616987541212</v>
+        <v>5.463708818933497</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>5.463585677520298</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>5.695212509210231</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5.291082948917277</v>
+        <v>5.610465319649466</v>
       </c>
       <c r="C199">
-        <v>5.387863811471541</v>
+        <v>5.380304087235263</v>
       </c>
       <c r="D199">
-        <v>5.306533739397433</v>
+        <v>5.432608508340166</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>5.433500727825103</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>5.667118843334281</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5.259930851487424</v>
+        <v>5.582489872540361</v>
       </c>
       <c r="C200">
-        <v>5.357584050716905</v>
+        <v>5.34932784296042</v>
       </c>
       <c r="D200">
-        <v>5.275467500722068</v>
+        <v>5.401512619229884</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>5.403408963938115</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>5.639026025411904</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>5.22879739746699</v>
+        <v>5.554480040170184</v>
       </c>
       <c r="C201">
-        <v>5.32732917677812</v>
+        <v>5.318372916385842</v>
       </c>
       <c r="D201">
-        <v>5.244418943450046</v>
+        <v>5.370422358506251</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>5.373311884855169</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>5.610935657842371</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5.197683182192386</v>
+        <v>5.526437959552292</v>
       </c>
       <c r="C202">
-        <v>5.297099852524722</v>
+        <v>5.287440012130706</v>
       </c>
       <c r="D202">
-        <v>5.213388705300466</v>
+        <v>5.339338868642416</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>5.343210932189683</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>5.582849288461336</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5.16658877052724</v>
+        <v>5.498365700133954</v>
       </c>
       <c r="C203">
-        <v>5.266896711145257</v>
+        <v>5.256529793762075</v>
       </c>
       <c r="D203">
-        <v>5.182377391444503</v>
+        <v>5.308263258334291</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>5.31310749194098</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>5.554768409076289</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>5.135514698349828</v>
+        <v>5.470265271639438</v>
       </c>
       <c r="C204">
-        <v>5.236720357659268</v>
+        <v>5.225642901436242</v>
       </c>
       <c r="D204">
-        <v>5.151385576097186</v>
+        <v>5.277196588234951</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>5.283002901939178</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>5.526694461050744</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5.104461473970983</v>
+        <v>5.442138624993447</v>
       </c>
       <c r="C205">
-        <v>5.206571370358719</v>
+        <v>5.194779944650496</v>
       </c>
       <c r="D205">
-        <v>5.120413804027604</v>
+        <v>5.246139870522157</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>5.252898456148666</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>5.498628848174053</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5.073429579480214</v>
+        <v>5.413987649183832</v>
       </c>
       <c r="C206">
-        <v>5.176450302182555</v>
+        <v>5.163941499696265</v>
       </c>
       <c r="D206">
-        <v>5.089462591997824</v>
+        <v>5.215094073621817</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>5.222795400828598</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>5.470572926221605</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5.042419472028574</v>
+        <v>5.385814180205115</v>
       </c>
       <c r="C207">
-        <v>5.146357682027167</v>
+        <v>5.133128120762234</v>
       </c>
       <c r="D207">
-        <v>5.058532430131213</v>
+        <v>5.184060132628467</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>5.192694935920483</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>5.44252799408306</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5.011431585046936</v>
+        <v>5.357619999690666</v>
       </c>
       <c r="C208">
-        <v>5.116294015992508</v>
+        <v>5.102340336907827</v>
       </c>
       <c r="D208">
-        <v>5.027623783213066</v>
+        <v>5.153038941995832</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>5.162598224101935</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>5.414495323973695</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>4.98046632940665</v>
+        <v>5.329406832733638</v>
       </c>
       <c r="C209">
-        <v>5.086259788567797</v>
+        <v>5.071578648118367</v>
       </c>
       <c r="D209">
-        <v>4.996737091929944</v>
+        <v>5.12203135199858</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>5.132506386929784</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>5.386476143466743</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.949524094522164</v>
+        <v>5.301176357235109</v>
       </c>
       <c r="C210">
-        <v>5.056255463763971</v>
+        <v>5.040843535702991</v>
       </c>
       <c r="D210">
-        <v>4.965872774045814</v>
+        <v>5.091038187713664</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>5.102420497198137</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>5.35847163746403</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>4.918605249401092</v>
+        <v>5.27293020082291</v>
       </c>
       <c r="C211">
-        <v>5.026281486188506</v>
+        <v>5.010135459991155</v>
       </c>
       <c r="D211">
-        <v>4.93503122552414</v>
+        <v>5.06006023902335</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>5.072341600935384</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>5.330482953624689</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>4.887710143642201</v>
+        <v>5.244669940174276</v>
       </c>
       <c r="C212">
-        <v>4.996338282074142</v>
+        <v>4.979454856268593</v>
       </c>
       <c r="D212">
-        <v>4.904212821591794</v>
+        <v>5.029098254577264</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>5.042270705454617</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>5.302511207280176</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>4.856839108385405</v>
+        <v>5.216397109036522</v>
       </c>
       <c r="C213">
-        <v>4.966426260255902</v>
+        <v>4.948802143543378</v>
       </c>
       <c r="D213">
-        <v>4.873417917754655</v>
+        <v>4.998152957045054</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>5.012208778407828</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>5.274557477671616</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>4.825992457215091</v>
+        <v>5.188113195270276</v>
       </c>
       <c r="C214">
-        <v>4.936545813102402</v>
+        <v>4.918177723403911</v>
       </c>
       <c r="D214">
-        <v>4.842646850760577</v>
+        <v>4.967225043131353</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>4.982156755807606</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>5.246622807158195</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>4.795170487019563</v>
+        <v>5.159819640791702</v>
       </c>
       <c r="C215">
-        <v>4.906697317405029</v>
+        <v>4.887581975834986</v>
       </c>
       <c r="D215">
-        <v>4.811899939517753</v>
+        <v>4.936315177517311</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>4.952115544000029</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>5.21870821124715</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>4.764373478808715</v>
+        <v>5.131517848420634</v>
       </c>
       <c r="C216">
-        <v>4.876881135224021</v>
+        <v>4.857015266507395</v>
       </c>
       <c r="D216">
-        <v>4.781177485967104</v>
+        <v>4.905423992626996</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>4.922086015396791</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>5.190814674055983</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>4.733601698491555</v>
+        <v>5.103209179107148</v>
       </c>
       <c r="C217">
-        <v>4.847097614696662</v>
+        <v>4.826477946603909</v>
       </c>
       <c r="D217">
-        <v>4.750479775912374</v>
+        <v>4.874552102940713</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>4.892069009161465</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>5.162943144759408</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>4.702855397614985</v>
+        <v>5.074894952474483</v>
       </c>
       <c r="C218">
-        <v>4.817347090807067</v>
+        <v>4.795970349272143</v>
       </c>
       <c r="D218">
-        <v>4.719807079810439</v>
+        <v>4.843700096113491</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>4.862065340893123</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>5.135094546150407</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>4.672134814067804</v>
+        <v>5.046576452511935</v>
       </c>
       <c r="C219">
-        <v>4.787629886119798</v>
+        <v>4.76549279485379</v>
       </c>
       <c r="D219">
-        <v>4.689159653521838</v>
+        <v>4.812868528444369</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>4.832075796789213</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>5.107269776958545</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>4.641440172755487</v>
+        <v>5.018254925014896</v>
       </c>
       <c r="C220">
-        <v>4.757946311480806</v>
+        <v>4.735045591593735</v>
       </c>
       <c r="D220">
-        <v>4.658537739026463</v>
+        <v>4.782057941146753</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>4.802101131853051</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>5.079469707435055</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>4.61077168623426</v>
+        <v>4.989931578702994</v>
       </c>
       <c r="C221">
-        <v>4.728296666686479</v>
+        <v>4.704629032716282</v>
       </c>
       <c r="D221">
-        <v>4.62794156510242</v>
+        <v>4.751268852029292</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>4.77214208042562</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>5.051695177159051</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>4.580129555313422</v>
+        <v>4.961607589797331</v>
       </c>
       <c r="C222">
-        <v>4.698681241121009</v>
+        <v>4.674243400206829</v>
       </c>
       <c r="D222">
-        <v>4.597371347973924</v>
+        <v>4.720501755780895</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>4.742199350988278</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>5.023947008407013</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>4.549513969631732</v>
+        <v>4.93328409968635</v>
       </c>
       <c r="C223">
-        <v>4.669100314366132</v>
+        <v>4.643888966013104</v>
       </c>
       <c r="D223">
-        <v>4.566827291925598</v>
+        <v>4.689757126622743</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>4.712273625304231</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>4.99622599822534</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4.518925108208321</v>
+        <v>4.904962216598471</v>
       </c>
       <c r="C224">
-        <v>4.639554156782026</v>
+        <v>4.613565989571591</v>
       </c>
       <c r="D224">
-        <v>4.536309589888684</v>
+        <v>4.659035422876982</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>4.682365563949857</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>4.968532916782459</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>4.488363139965519</v>
+        <v>4.876643019100266</v>
       </c>
       <c r="C225">
-        <v>4.610043030063236</v>
+        <v>4.583274720601124</v>
       </c>
       <c r="D225">
-        <v>4.50581842399707</v>
+        <v>4.628337083486144</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>4.65247580670563</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>4.94086851515451</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4.457828224224335</v>
+        <v>4.848327552806436</v>
       </c>
       <c r="C226">
-        <v>4.58056718777041</v>
+        <v>4.553015400581895</v>
       </c>
       <c r="D226">
-        <v>4.475353966115672</v>
+        <v>4.59766252596912</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>4.622604970506942</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>4.913233524830978</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4.427320511175712</v>
+        <v>4.82001683409618</v>
       </c>
       <c r="C227">
-        <v>4.551126875836719</v>
+        <v>4.522788260480912</v>
       </c>
       <c r="D227">
-        <v>4.444916378348008</v>
+        <v>4.567012156527288</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>4.592753650368646</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>4.885628655820929</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4.396840142329785</v>
+        <v>4.791711853589586</v>
       </c>
       <c r="C228">
-        <v>4.521722333053983</v>
+        <v>4.492593522922394</v>
       </c>
       <c r="D228">
-        <v>4.414505813516749</v>
+        <v>4.536386364474543</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>4.562922425048635</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>4.858054596285966</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4.36638725094374</v>
+        <v>4.763413574514958</v>
       </c>
       <c r="C229">
-        <v>4.492353791536118</v>
+        <v>4.462431403902465</v>
       </c>
       <c r="D229">
-        <v>4.384122415617019</v>
+        <v>4.505785519711932</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>4.533111853535716</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>4.830512019819533</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.335961962428585</v>
+        <v>4.735122932390404</v>
       </c>
       <c r="C230">
-        <v>4.463021477163957</v>
+        <v>4.432302110622494</v>
       </c>
       <c r="D230">
-        <v>4.353766320247976</v>
+        <v>4.475209980252154</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>4.50332247321639</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>4.803001581402403</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.305564394735828</v>
+        <v>4.70684082933449</v>
       </c>
       <c r="C231">
-        <v>4.433725610010834</v>
+        <v>4.402205843148485</v>
       </c>
       <c r="D231">
-        <v>4.323437655026605</v>
+        <v>4.444660091520333</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>4.473554808415884</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>4.775523915848151</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>4.275194658725169</v>
+        <v>4.678568155862364</v>
       </c>
       <c r="C232">
-        <v>4.404466404749377</v>
+        <v>4.372142796254398</v>
       </c>
       <c r="D232">
-        <v>4.293136539982407</v>
+        <v>4.414136184085447</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>4.443809365884833</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>4.748079644331319</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>4.244852858514799</v>
+        <v>4.650305775356796</v>
       </c>
       <c r="C233">
-        <v>4.375244071042626</v>
+        <v>4.342113157449728</v>
       </c>
       <c r="D233">
-        <v>4.26286308793202</v>
+        <v>4.38363857390023</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>4.414086633868227</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>4.720669372708779</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>4.214539091815637</v>
+        <v>4.622054529663891</v>
       </c>
       <c r="C234">
-        <v>4.346058813917803</v>
+        <v>4.31211710819928</v>
       </c>
       <c r="D234">
-        <v>4.232617404833442</v>
+        <v>4.353167568240282</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>4.384387087064395</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>4.69329369068727</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>4.18425345024733</v>
+        <v>4.593815220672676</v>
       </c>
       <c r="C235">
-        <v>4.316910834126363</v>
+        <v>4.282154825775745</v>
       </c>
       <c r="D235">
-        <v>4.202399590123707</v>
+        <v>4.322723462137882</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>4.354711186051651</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>4.665953171811733</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.153996019639952</v>
+        <v>4.565588646812142</v>
       </c>
       <c r="C236">
-        <v>4.287800328488689</v>
+        <v>4.252226480805791</v>
       </c>
       <c r="D236">
-        <v>4.172209737040926</v>
+        <v>4.2923065363693</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>4.325059376020731</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>4.638648379111212</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4.123766880321056</v>
+        <v>4.53737558442907</v>
       </c>
       <c r="C237">
-        <v>4.258727490225223</v>
+        <v>4.222332238834017</v>
       </c>
       <c r="D237">
-        <v>4.142047932930931</v>
+        <v>4.261917064975998</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>4.295432087810672</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>4.611379861754283</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>4.093566107388996</v>
+        <v>4.509176788910688</v>
       </c>
       <c r="C238">
-        <v>4.229692509275431</v>
+        <v>4.192472263279276</v>
       </c>
       <c r="D238">
-        <v>4.111914259538509</v>
+        <v>4.231555311279885</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>4.265829741331664</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>4.584148152931487</v>
       </c>
     </row>
   </sheetData>
